--- a/biology/Botanique/Actinidia/Actinidia.xlsx
+++ b/biology/Botanique/Actinidia/Actinidia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinidia (ou actinidier dans le langage vernaculaire) est un genre de plantes à fleurs de la famille des Actinidiaceae. C'est le genre auquel appartiennent les espèces de kiwi et de kiwaï.
 L'espèce de kiwi la plus connue est Actinidia deliciosa dont les fruits ont la peau duveteuse.
 Il s'agit en général de lianes. On en répertorie actuellement 30 espèces. Elles sont presque toutes dioïques, notamment Actinidia deliciosa.
-Un actinidier fleurit au printemps et on en récolte les kiwis en automne et en hiver[1].
+Un actinidier fleurit au printemps et on en récolte les kiwis en automne et en hiver.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre vient du grec ἄκτιϛ, ἄκτινοϛ, aktis, aktinos, qui signifie « rayon », en référence aux styles des fleurs femelles se déployant comme les rayons d'une roue[2]. Le nom d'Actinidia a été donné en premier par le botaniste français Jules Émile Planchon en 1847[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre vient du grec ἄκτιϛ, ἄκτινοϛ, aktis, aktinos, qui signifie « rayon », en référence aux styles des fleurs femelles se déployant comme les rayons d'une roue. Le nom d'Actinidia a été donné en premier par le botaniste français Jules Émile Planchon en 1847.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Espèces à fruits comestibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs espèces produisent des kiwis comestibles. Parmi les plus connues :
 Actinidia deliciosa dont les fruits ont la peau duveteuse.
@@ -580,7 +596,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce genre contient de nombreuses espèces, sous-espèces et variétés. De nombreux cultivars ont été également créés.
 Actinidia arguta (Siebold &amp; Zucc.) Planch. ex Miq. - Kiwaï ou Kiwi de Sibérie
